--- a/corona-server-side-asp.net/Excels/Sections/מבט על/חולים פעילים.xlsx
+++ b/corona-server-side-asp.net/Excels/Sections/מבט על/חולים פעילים.xlsx
@@ -30,7 +30,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>average</t>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,15 +378,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>374</v>
       </c>
     </row>
@@ -394,7 +394,7 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>169</v>
       </c>
       <c r="G3" s="2"/>
